--- a/data-raw/Metadata/Raw Catch - Steelhead - Metadata.xlsx
+++ b/data-raw/Metadata/Raw Catch - Steelhead - Metadata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory Starr\Desktop\EDI\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\CVPIA\data-stewardship\EDI_data_repos_to_upload\stanislaus_rst_edi\data-raw\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E52E18-D11E-4885-862B-C4EB56FD1518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10740" tabRatio="834"/>
+    <workbookView xWindow="18735" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="834" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -26,11 +27,6 @@
     <sheet name="code_definitions" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -370,12 +366,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>millimeters (mm)</t>
-  </si>
-  <si>
-    <t>grams (g)</t>
-  </si>
-  <si>
     <t>number of fish</t>
   </si>
   <si>
@@ -398,12 +388,18 @@
   </si>
   <si>
     <t>CVPIA</t>
+  </si>
+  <si>
+    <t>millimeter</t>
+  </si>
+  <si>
+    <t>gram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -454,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -493,6 +489,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -877,10 +879,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -909,10 +911,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Point, LineString, LinearRing, Polygon, Multipoint, MultiLineString, MultiPolygon, MultiGeometry"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"tabular, vector, raster"</formula1>
     </dataValidation>
   </dataValidations>
@@ -921,7 +923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -975,7 +977,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"chinook, steelhead, delta_smelt, white_sturgeon, green_sturgeon"</formula1>
     </dataValidation>
   </dataValidations>
@@ -985,10 +987,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMG15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1084,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
@@ -1111,8 +1115,8 @@
       <c r="C5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>107</v>
+      <c r="E5" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -1125,8 +1129,8 @@
       <c r="C6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>107</v>
+      <c r="E6" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1173,8 +1177,8 @@
       <c r="F9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>111</v>
+      <c r="G9" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>108</v>
@@ -1202,8 +1206,8 @@
       <c r="F10" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>112</v>
+      <c r="G10" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>108</v>
@@ -1231,8 +1235,8 @@
       <c r="F11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>113</v>
+      <c r="G11" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>108</v>
@@ -1302,19 +1306,19 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1324,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1355,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
@@ -1423,7 +1427,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1005" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"creator,field technician,program founder,other,associate,reviewer,researcher,principal investigator,lab technician"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1434,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1455,10 +1459,10 @@
     </row>
     <row r="2" spans="1:2" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1489,12 +1493,12 @@
     </row>
     <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,7 +1518,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1524,7 +1528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1540,7 +1544,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>10</v>
@@ -1557,7 +1561,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"CCO, CCBY"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1567,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1603,7 +1607,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"creator,field technician,program founder,other,associate,reviewer,researcher,principal investigator,lab technician"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1613,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1660,7 +1664,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check default funding values from dropdown menu before manually adding funding information _x000a_" sqref="A1:A1048576">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check default funding values from dropdown menu before manually adding funding information _x000a_" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"USBR, CDWR, CDFW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1670,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1698,14 +1702,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A38:A1002">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A38:A1002" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"completed,ongoing"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"daily, weekly, monthly, annually"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A37" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"complete, ongoing "</formula1>
     </dataValidation>
   </dataValidations>
@@ -1715,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1755,7 +1759,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2">
         <v>-121.179152</v>
@@ -1796,7 +1800,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G8 G3">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G8 G3" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>F2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1996,18 +2000,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2029,6 +2033,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7069DB4E-2E54-4EC8-AFE1-B50A3BCE1246}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4324EA-0DD5-429A-A6A3-8853D3F17487}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0babd99f-cddb-4efe-bfbd-78b0de5d1c16"/>
@@ -2042,12 +2054,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7069DB4E-2E54-4EC8-AFE1-B50A3BCE1246}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>